--- a/demo/Booking System/Create New Order/Default.xlsx
+++ b/demo/Booking System/Create New Order/Default.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.1"/>
